--- a/Alkatrészek.xlsx
+++ b/Alkatrészek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Követőerősítő</t>
   </si>
   <si>
-    <t>89-22-87</t>
-  </si>
-  <si>
-    <t>LM2904DT</t>
-  </si>
-  <si>
     <t>Lomex</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>potméterek</t>
   </si>
   <si>
-    <t>Tartalmaz ellenpárhuzamos diódát, így gondolom nem kell kölön beépítenem? 4db az inverterhez+ az előtöltéshez is ugyanilyen típus kell,nem?</t>
-  </si>
-  <si>
     <t>transzformátor</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>FET</t>
   </si>
   <si>
-    <t>LM22672MRE-5.0/NOPB</t>
-  </si>
-  <si>
     <t>fix kimenetű DC/DC Buck</t>
   </si>
   <si>
@@ -137,15 +125,6 @@
     <t>230VAC</t>
   </si>
   <si>
-    <t>RT114730</t>
-  </si>
-  <si>
-    <t>60-01-03 </t>
-  </si>
-  <si>
-    <t>NTC 22K 0,25W 2381 640 63223</t>
-  </si>
-  <si>
     <t>STM32F030C8T6</t>
   </si>
   <si>
@@ -155,9 +134,6 @@
     <t>Kell-e olyan ami fixpontot tud-&gt; drágább lenne</t>
   </si>
   <si>
-    <t>3V3 kimenet</t>
-  </si>
-  <si>
     <t>ACS709LLFTR-20BB-T</t>
   </si>
   <si>
@@ -203,19 +179,10 @@
     <t>43-07-92 </t>
   </si>
   <si>
-    <t>PSMN030-60YS</t>
-  </si>
-  <si>
     <t>http://hu.farnell.com/webapp/wcs/stores/servlet/Search?catalogId=15001&amp;langId=36&amp;storeId=10162&amp;categoryId=700000043507&amp;eq=N%3D221085%2B2015%26amp%3BNs%3DP_STORE_MARKETING_RANK_FARNELL_HU%257c0%257c%257cP_MAN_PART_NUM%257c0%26amp%3BNtpc%3D1%26amp%3BNtpr%3D1&amp;showResults=true&amp;aa=true&amp;pf=110008034,110008053,110022473,110037460,110037473,110047307,110070663,110077456,110080899,110093520,110096769,110100717,110101080,110148320,110148324,110169489,110199950,111241009&amp;vw=</t>
   </si>
   <si>
     <t>Csnubber</t>
-  </si>
-  <si>
-    <t>GRM31MF51A106ZA01L</t>
-  </si>
-  <si>
-    <t>9527745RL</t>
   </si>
   <si>
     <t>feltételezés L=10uH  1/2LI^2=2*1/2C(U^2+(0.05*u)^2) -&gt;C=6.9uF -&gt; túlméretezés+ kapható  C=10 uF</t>
@@ -304,12 +271,96 @@
   <si>
     <t>Hálózati transzformátornál lehet-e állítani a kimenő jel frekvenciáját?</t>
   </si>
+  <si>
+    <t>dióda</t>
+  </si>
+  <si>
+    <t>STTH15AC06FP</t>
+  </si>
+  <si>
+    <t>rail-rail input-output 3v3</t>
+  </si>
+  <si>
+    <t>irlz44 Qnc&lt;50</t>
+  </si>
+  <si>
+    <t>22ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rgate beállít, hogy 200ns alatt </t>
+  </si>
+  <si>
+    <t>kerámia jó de legalább 30 V-os legyen</t>
+  </si>
+  <si>
+    <t>MCP6231T-E/OT</t>
+  </si>
+  <si>
+    <t>B57153S0100M000</t>
+  </si>
+  <si>
+    <t>LDO 5V-&gt;3V3</t>
+  </si>
+  <si>
+    <t>LD1117S33CTR</t>
+  </si>
+  <si>
+    <t>GRM31CR6YA106KA12L</t>
+  </si>
+  <si>
+    <t>HRM1-S DC5V</t>
+  </si>
+  <si>
+    <t>5Vról működik. 711 Ft?</t>
+  </si>
+  <si>
+    <t>dióda a reléhez</t>
+  </si>
+  <si>
+    <t>83-02-64</t>
+  </si>
+  <si>
+    <t>1A 1000V DO-214AC RECT. S1M (YET) SMA</t>
+  </si>
+  <si>
+    <t>fet a reléhez</t>
+  </si>
+  <si>
+    <t>86-00-97 </t>
+  </si>
+  <si>
+    <t>2N7002 (NXP) N-FET 60V 0.3A 0.83W Rds&gt;5R SOT-23 ˝12W˝ (SN7002)</t>
+  </si>
+  <si>
+    <t>37-00-71</t>
+  </si>
+  <si>
+    <t>128x 64 DOT LIGHT:LED 64128QCCBW-3LP (DIS) 0.4/DOT 75x53mm BLUE STN LOW.POW. WIDE TEMP. (CONTROLLER/DRIVER: SBN6400G-D </t>
+  </si>
+  <si>
+    <t>pinout?</t>
+  </si>
+  <si>
+    <t>BE KELL ALÁ FÚRNI?</t>
+  </si>
+  <si>
+    <t>IFX91041EJV50XUMA1</t>
+  </si>
+  <si>
+    <t>5V KIMENET</t>
+  </si>
+  <si>
+    <t>hasán forrasztás!</t>
+  </si>
+  <si>
+    <t>SI4174DY-T1-GE3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,13 +461,42 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -432,13 +512,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -459,12 +538,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -746,10 +825,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC26"/>
+  <sheetPr codeName="Munka1"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,59 +844,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>65</v>
+      <c r="A1" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -836,10 +916,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -868,20 +948,20 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>1858083</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -911,21 +991,25 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
+      <c r="B11" s="13">
+        <v>1840879</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -949,14 +1033,14 @@
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1845658</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
+      <c r="A12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1840422</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -965,10 +1049,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -979,11 +1063,13 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -997,22 +1083,24 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1688795</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1038,25 +1126,25 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1083,20 +1171,20 @@
     </row>
     <row r="15" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1124,19 +1212,23 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1163,22 +1255,26 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10">
-        <v>2435839</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2432504</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1204,22 +1300,24 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="10">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9">
         <v>1273473</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>33</v>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1245,13 +1343,13 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1629042</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9479937</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -1260,9 +1358,11 @@
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1288,13 +1388,13 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11">
         <v>2393634</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -1303,10 +1403,10 @@
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1333,118 +1433,182 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1797011</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
+      <c r="E25" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="16">
+        <v>2454704</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1467779</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" tooltip="1651976RL" display="http://hu.farnell.com/allegro-microsystems/acs713elctr-20a-t/ic-hall-effect-current-sensor/dp/1651976RL"/>
-    <hyperlink ref="C10" r:id="rId2" tooltip="ACS713ELCTR-20A-T" display="http://hu.farnell.com/allegro-microsystems/acs713elctr-20a-t/ic-hall-effect-current-sensor/dp/1651976RL"/>
-    <hyperlink ref="C14" r:id="rId3" display="http://lomex.hu/hu/webshop/%23/search,49-10-02/stype,1"/>
-    <hyperlink ref="C17" r:id="rId4" tooltip="LM22672MRE-5.0/NOPB" display="http://hu.farnell.com/texas-instruments/lm22672mre-5-0-nopb/simpleswitch-1-0a-4-5-42vin-8psop/dp/2435839"/>
-    <hyperlink ref="B17" r:id="rId5" tooltip="2435839" display="http://hu.farnell.com/texas-instruments/lm22672mre-5-0-nopb/simpleswitch-1-0a-4-5-42vin-8psop/dp/2435839"/>
-    <hyperlink ref="B18" r:id="rId6" tooltip="1273473" display="http://hu.farnell.com/linear-technology/lt1158csw-pbf/ic-mosfet-driver-half-bridge-wsoic/dp/1273473"/>
-    <hyperlink ref="C19" r:id="rId7" tooltip="RT114730" display="http://hu.farnell.com/schrack-te-connectivity/rt114730/relay-spdt-250vac-12a/dp/1629042"/>
-    <hyperlink ref="B19" r:id="rId8" tooltip="1629042" display="http://hu.farnell.com/schrack-te-connectivity/rt114730/relay-spdt-250vac-12a/dp/1629042"/>
-    <hyperlink ref="C13" r:id="rId9" display="http://lomex.hu/hu/webshop/%23/search,60-01-03/stype,1"/>
-    <hyperlink ref="B20" r:id="rId10" tooltip="2393634" display="http://hu.farnell.com/stmicroelectronics/stm32f030c8t6/mcu-32bit-cortex-m0-48mhz-lqfp/dp/2393634"/>
-    <hyperlink ref="C20" r:id="rId11" tooltip="STM32F030C8T6" display="http://hu.farnell.com/stmicroelectronics/stm32f030c8t6/mcu-32bit-cortex-m0-48mhz-lqfp/dp/2393634"/>
-    <hyperlink ref="C21" r:id="rId12" display="http://lomex.hu/hu/webshop/%23/search,80-11-23/stype,1"/>
-    <hyperlink ref="C22" r:id="rId13" display="http://lomex.hu/hu/webshop/%23/search,80-11-47/stype,1"/>
-    <hyperlink ref="C23" r:id="rId14" display="http://lomex.hu/hu/webshop/%23/search,43-07-92/stype,1"/>
-    <hyperlink ref="C24" r:id="rId15" display="http://lomex.hu/hu/webshop/%23/search,45-08-76/stype,1"/>
-    <hyperlink ref="C12" r:id="rId16" tooltip="PSMN030-60YS" display="http://hu.farnell.com/nxp/psmn030-60ys/mosfet-n-ch-60v-29a-lfpak/dp/1845658"/>
-    <hyperlink ref="B12" r:id="rId17" tooltip="1845658" display="http://hu.farnell.com/nxp/psmn030-60ys/mosfet-n-ch-60v-29a-lfpak/dp/1845658"/>
-    <hyperlink ref="C25" r:id="rId18" tooltip="GRM31MF51A106ZA01L" display="http://hu.farnell.com/murata/grm31mf51a106za01l/cap-mlcc-y5v-10uf-10v-1206/dp/9527745RL"/>
-    <hyperlink ref="B25" r:id="rId19" tooltip="9527745RL" display="http://hu.farnell.com/murata/grm31mf51a106za01l/cap-mlcc-y5v-10uf-10v-1206/dp/9527745RL"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://lomex.hu/hu/webshop/%23/search,49-10-02/stype,1"/>
+    <hyperlink ref="B18" r:id="rId2" tooltip="1273473" display="http://hu.farnell.com/linear-technology/lt1158csw-pbf/ic-mosfet-driver-half-bridge-wsoic/dp/1273473"/>
+    <hyperlink ref="B20" r:id="rId3" tooltip="2393634" display="http://hu.farnell.com/stmicroelectronics/stm32f030c8t6/mcu-32bit-cortex-m0-48mhz-lqfp/dp/2393634"/>
+    <hyperlink ref="C20" r:id="rId4" tooltip="STM32F030C8T6" display="http://hu.farnell.com/stmicroelectronics/stm32f030c8t6/mcu-32bit-cortex-m0-48mhz-lqfp/dp/2393634"/>
+    <hyperlink ref="C21" r:id="rId5" display="http://lomex.hu/hu/webshop/%23/search,80-11-23/stype,1"/>
+    <hyperlink ref="C22" r:id="rId6" display="http://lomex.hu/hu/webshop/%23/search,80-11-47/stype,1"/>
+    <hyperlink ref="C23" r:id="rId7" display="http://lomex.hu/hu/webshop/%23/search,43-07-92/stype,1"/>
+    <hyperlink ref="C24" r:id="rId8" display="http://lomex.hu/hu/webshop/%23/search,45-08-76/stype,1"/>
+    <hyperlink ref="B26" r:id="rId9" tooltip="2454704" display="http://hu.farnell.com/stmicroelectronics/stth15ac06fp/rect-fast-600v-to-220fpac/dp/2454704"/>
+    <hyperlink ref="C26" r:id="rId10" tooltip="STTH15AC06FP" display="http://hu.farnell.com/stmicroelectronics/stth15ac06fp/rect-fast-600v-to-220fpac/dp/2454704"/>
+    <hyperlink ref="B13" r:id="rId11" tooltip="1688795" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
+    <hyperlink ref="C13" r:id="rId12" tooltip="B57153S0100M000" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
+    <hyperlink ref="C28" r:id="rId13" tooltip="1467779" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
+    <hyperlink ref="B28" r:id="rId14" tooltip="LD1117S33CTR" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
+    <hyperlink ref="B25" r:id="rId15" tooltip="1797011" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
+    <hyperlink ref="C25" r:id="rId16" tooltip="GRM31CR6YA106KA12L" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
+    <hyperlink ref="B19" r:id="rId17" tooltip="9479937" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
+    <hyperlink ref="C19" r:id="rId18" tooltip="HRM1-S DC5V" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
+    <hyperlink ref="C27" r:id="rId19" display="http://lomex.hu/hu/webshop/%23/search,83-02-64/stype,1"/>
+    <hyperlink ref="C29" r:id="rId20" display="http://lomex.hu/hu/webshop/%23/search,86-00-97/stype,1"/>
+    <hyperlink ref="C16" r:id="rId21" display="http://lomex.hu/hu/webshop/%23/search,37-00-71/stype,1"/>
+    <hyperlink ref="B17" r:id="rId22" tooltip="2432504" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
+    <hyperlink ref="C17" r:id="rId23" tooltip="IFX91041EJV50XUMA1" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
+    <hyperlink ref="B12" r:id="rId24" tooltip="1840422" display="http://hu.farnell.com/vishay/si4174dy-t1-ge3/mosfet-n-ch-30v-17a-so8/dp/1840422"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Alkatrészek.xlsx
+++ b/Alkatrészek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -308,12 +308,6 @@
     <t>GRM31CR6YA106KA12L</t>
   </si>
   <si>
-    <t>HRM1-S DC5V</t>
-  </si>
-  <si>
-    <t>5Vról működik. 711 Ft?</t>
-  </si>
-  <si>
     <t>dióda a reléhez</t>
   </si>
   <si>
@@ -354,6 +348,27 @@
   </si>
   <si>
     <t>SI4174DY-T1-GE3</t>
+  </si>
+  <si>
+    <t>HRM1-S DppC5V</t>
+  </si>
+  <si>
+    <t>pinout???</t>
+  </si>
+  <si>
+    <t>kristály</t>
+  </si>
+  <si>
+    <t>40-01-35</t>
+  </si>
+  <si>
+    <t>QUARZ HC49/S (NSK) 30ppm 20pF LOW PROFILE </t>
+  </si>
+  <si>
+    <t>XP-148M-A1M0</t>
+  </si>
+  <si>
+    <t>footprint??</t>
   </si>
 </sst>
 </file>
@@ -826,10 +841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Munka1"/>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1023,7 @@
         <v>70</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1040,7 +1055,7 @@
         <v>1840422</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -1052,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1176,7 +1191,9 @@
       <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
@@ -1187,7 +1204,9 @@
         <v>22</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1215,10 +1234,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -1261,7 +1280,7 @@
         <v>2432504</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1270,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1308,7 +1327,9 @@
       <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1370,7 @@
         <v>9479937</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -1361,7 +1382,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1538,13 +1559,13 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -1554,11 +1575,11 @@
       <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1">
+        <v>1467779</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1467779</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -1569,15 +1590,32 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1595,20 +1633,21 @@
     <hyperlink ref="C26" r:id="rId10" tooltip="STTH15AC06FP" display="http://hu.farnell.com/stmicroelectronics/stth15ac06fp/rect-fast-600v-to-220fpac/dp/2454704"/>
     <hyperlink ref="B13" r:id="rId11" tooltip="1688795" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
     <hyperlink ref="C13" r:id="rId12" tooltip="B57153S0100M000" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
-    <hyperlink ref="C28" r:id="rId13" tooltip="1467779" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
-    <hyperlink ref="B28" r:id="rId14" tooltip="LD1117S33CTR" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
-    <hyperlink ref="B25" r:id="rId15" tooltip="1797011" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
-    <hyperlink ref="C25" r:id="rId16" tooltip="GRM31CR6YA106KA12L" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
-    <hyperlink ref="B19" r:id="rId17" tooltip="9479937" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
-    <hyperlink ref="C19" r:id="rId18" tooltip="HRM1-S DC5V" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
-    <hyperlink ref="C27" r:id="rId19" display="http://lomex.hu/hu/webshop/%23/search,83-02-64/stype,1"/>
-    <hyperlink ref="C29" r:id="rId20" display="http://lomex.hu/hu/webshop/%23/search,86-00-97/stype,1"/>
-    <hyperlink ref="C16" r:id="rId21" display="http://lomex.hu/hu/webshop/%23/search,37-00-71/stype,1"/>
-    <hyperlink ref="B17" r:id="rId22" tooltip="2432504" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
-    <hyperlink ref="C17" r:id="rId23" tooltip="IFX91041EJV50XUMA1" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
-    <hyperlink ref="B12" r:id="rId24" tooltip="1840422" display="http://hu.farnell.com/vishay/si4174dy-t1-ge3/mosfet-n-ch-30v-17a-so8/dp/1840422"/>
+    <hyperlink ref="B28" r:id="rId13" tooltip="1467779" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
+    <hyperlink ref="B25" r:id="rId14" tooltip="1797011" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
+    <hyperlink ref="C25" r:id="rId15" tooltip="GRM31CR6YA106KA12L" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
+    <hyperlink ref="B19" r:id="rId16" tooltip="9479937" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
+    <hyperlink ref="C19" r:id="rId17" tooltip="HRM1-S DC5V" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
+    <hyperlink ref="C27" r:id="rId18" display="http://lomex.hu/hu/webshop/%23/search,83-02-64/stype,1"/>
+    <hyperlink ref="C29" r:id="rId19" display="http://lomex.hu/hu/webshop/%23/search,86-00-97/stype,1"/>
+    <hyperlink ref="C16" r:id="rId20" display="http://lomex.hu/hu/webshop/%23/search,37-00-71/stype,1"/>
+    <hyperlink ref="B17" r:id="rId21" tooltip="2432504" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
+    <hyperlink ref="C17" r:id="rId22" tooltip="IFX91041EJV50XUMA1" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
+    <hyperlink ref="B12" r:id="rId23" tooltip="1840422" display="http://hu.farnell.com/vishay/si4174dy-t1-ge3/mosfet-n-ch-30v-17a-so8/dp/1840422"/>
+    <hyperlink ref="C28" r:id="rId24" tooltip="LD1117S33CTR" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
+    <hyperlink ref="C30" r:id="rId25" display="http://lomex.hu/hu/webshop/%23/search,40-01-35/stype,1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Alkatrészek.xlsx
+++ b/Alkatrészek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="143">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Bemenő feszültség</t>
-  </si>
-  <si>
-    <t>12-15V</t>
   </si>
   <si>
     <t>Kimenő feszültség</t>
@@ -240,9 +237,6 @@
     </r>
   </si>
   <si>
-    <t>22kHz</t>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -269,15 +263,6 @@
     <t>10-50Hz</t>
   </si>
   <si>
-    <t>Hálózati transzformátornál lehet-e állítani a kimenő jel frekvenciáját?</t>
-  </si>
-  <si>
-    <t>dióda</t>
-  </si>
-  <si>
-    <t>STTH15AC06FP</t>
-  </si>
-  <si>
     <t>rail-rail input-output 3v3</t>
   </si>
   <si>
@@ -369,6 +354,189 @@
   </si>
   <si>
     <t>footprint??</t>
+  </si>
+  <si>
+    <t>Trimmer</t>
+  </si>
+  <si>
+    <t>90-00-58</t>
+  </si>
+  <si>
+    <t>3305-103R</t>
+  </si>
+  <si>
+    <t>relé előtöltéshez</t>
+  </si>
+  <si>
+    <t>42-02-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEG-5F 5DC </t>
+  </si>
+  <si>
+    <t>Kiszámított értékek:</t>
+  </si>
+  <si>
+    <t>25kHz</t>
+  </si>
+  <si>
+    <t>Kimenő feszültség(max)</t>
+  </si>
+  <si>
+    <t>250V</t>
+  </si>
+  <si>
+    <t>Bemenő feszültség(min)</t>
+  </si>
+  <si>
+    <t>Bemenő feszültség(max)</t>
+  </si>
+  <si>
+    <t>25V</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>Booster feszültség</t>
+  </si>
+  <si>
+    <t>d(Boost)</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>1-(Ubemin/Uboost)</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LAV</t>
+    </r>
+  </si>
+  <si>
+    <t>12,5A</t>
+  </si>
+  <si>
+    <r>
+      <t>1/(1-d)*I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Boost</t>
+    </r>
+  </si>
+  <si>
+    <t>IBoost</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>P/Uboost</t>
+  </si>
+  <si>
+    <t>dIL</t>
+  </si>
+  <si>
+    <r>
+      <t>25%*I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LAV</t>
+    </r>
+  </si>
+  <si>
+    <t>3,2A</t>
+  </si>
+  <si>
+    <t>L&gt;=Uboost/dIL*tbe</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>40us</t>
+  </si>
+  <si>
+    <t>1/f</t>
+  </si>
+  <si>
+    <t>tbe</t>
+  </si>
+  <si>
+    <t>d*T</t>
+  </si>
+  <si>
+    <t>20us</t>
+  </si>
+  <si>
+    <t>160uH</t>
+  </si>
+  <si>
+    <t>7,8*tbe</t>
+  </si>
+  <si>
+    <t>Szűrő:</t>
+  </si>
+  <si>
+    <t>C legyen 100uF (fólia)</t>
+  </si>
+  <si>
+    <t>szűrő kapacitás</t>
+  </si>
+  <si>
+    <t>szűrő induktivitás</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Cboost</t>
+  </si>
+  <si>
+    <t>MCVVT035M331GB3L</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KPT-2012SECK</t>
+  </si>
+  <si>
+    <t>4700uF kondenzátor</t>
+  </si>
+  <si>
+    <t>EEVFK1C472M</t>
   </si>
 </sst>
 </file>
@@ -500,18 +668,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -527,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,9 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -841,10 +1000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Munka1"/>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,50 +1027,47 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1010,7 +1166,7 @@
         <v>1840879</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
@@ -1020,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1055,7 +1211,7 @@
         <v>1840422</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -1067,7 +1223,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1079,7 +1235,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1104,7 +1260,7 @@
         <v>1688795</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -1114,7 +1270,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1192,7 +1348,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -1205,7 +1361,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1233,11 +1389,11 @@
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>86</v>
+      <c r="B16" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -1280,7 +1436,7 @@
         <v>2432504</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1289,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1337,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1370,7 +1526,7 @@
         <v>9479937</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -1382,7 +1538,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1531,7 +1687,7 @@
         <v>1797011</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -1543,29 +1699,35 @@
         <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="16">
-        <v>2454704</v>
-      </c>
-      <c r="C26" s="16" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -1573,13 +1735,13 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>1467779</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -1590,13 +1752,13 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1604,19 +1766,284 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="1"/>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2211704</v>
+      </c>
+      <c r="C33" s="1">
+        <v>744772330</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2610901</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2099237</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2326365</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1629,25 +2056,32 @@
     <hyperlink ref="C22" r:id="rId6" display="http://lomex.hu/hu/webshop/%23/search,80-11-47/stype,1"/>
     <hyperlink ref="C23" r:id="rId7" display="http://lomex.hu/hu/webshop/%23/search,43-07-92/stype,1"/>
     <hyperlink ref="C24" r:id="rId8" display="http://lomex.hu/hu/webshop/%23/search,45-08-76/stype,1"/>
-    <hyperlink ref="B26" r:id="rId9" tooltip="2454704" display="http://hu.farnell.com/stmicroelectronics/stth15ac06fp/rect-fast-600v-to-220fpac/dp/2454704"/>
-    <hyperlink ref="C26" r:id="rId10" tooltip="STTH15AC06FP" display="http://hu.farnell.com/stmicroelectronics/stth15ac06fp/rect-fast-600v-to-220fpac/dp/2454704"/>
-    <hyperlink ref="B13" r:id="rId11" tooltip="1688795" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
-    <hyperlink ref="C13" r:id="rId12" tooltip="B57153S0100M000" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
-    <hyperlink ref="B28" r:id="rId13" tooltip="1467779" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
-    <hyperlink ref="B25" r:id="rId14" tooltip="1797011" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
-    <hyperlink ref="C25" r:id="rId15" tooltip="GRM31CR6YA106KA12L" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
-    <hyperlink ref="B19" r:id="rId16" tooltip="9479937" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
-    <hyperlink ref="C19" r:id="rId17" tooltip="HRM1-S DC5V" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
-    <hyperlink ref="C27" r:id="rId18" display="http://lomex.hu/hu/webshop/%23/search,83-02-64/stype,1"/>
-    <hyperlink ref="C29" r:id="rId19" display="http://lomex.hu/hu/webshop/%23/search,86-00-97/stype,1"/>
-    <hyperlink ref="C16" r:id="rId20" display="http://lomex.hu/hu/webshop/%23/search,37-00-71/stype,1"/>
-    <hyperlink ref="B17" r:id="rId21" tooltip="2432504" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
-    <hyperlink ref="C17" r:id="rId22" tooltip="IFX91041EJV50XUMA1" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
-    <hyperlink ref="B12" r:id="rId23" tooltip="1840422" display="http://hu.farnell.com/vishay/si4174dy-t1-ge3/mosfet-n-ch-30v-17a-so8/dp/1840422"/>
-    <hyperlink ref="C28" r:id="rId24" tooltip="LD1117S33CTR" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
-    <hyperlink ref="C30" r:id="rId25" display="http://lomex.hu/hu/webshop/%23/search,40-01-35/stype,1"/>
+    <hyperlink ref="B13" r:id="rId9" tooltip="1688795" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
+    <hyperlink ref="C13" r:id="rId10" tooltip="B57153S0100M000" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
+    <hyperlink ref="B28" r:id="rId11" tooltip="1467779" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
+    <hyperlink ref="B25" r:id="rId12" tooltip="1797011" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
+    <hyperlink ref="C25" r:id="rId13" tooltip="GRM31CR6YA106KA12L" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
+    <hyperlink ref="B19" r:id="rId14" tooltip="9479937" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
+    <hyperlink ref="C19" r:id="rId15" tooltip="HRM1-S DC5V" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
+    <hyperlink ref="C27" r:id="rId16" display="http://lomex.hu/hu/webshop/%23/search,83-02-64/stype,1"/>
+    <hyperlink ref="C29" r:id="rId17" display="http://lomex.hu/hu/webshop/%23/search,86-00-97/stype,1"/>
+    <hyperlink ref="C16" r:id="rId18" display="http://lomex.hu/hu/webshop/%23/search,37-00-71/stype,1"/>
+    <hyperlink ref="B17" r:id="rId19" tooltip="2432504" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
+    <hyperlink ref="C17" r:id="rId20" tooltip="IFX91041EJV50XUMA1" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="1840422" display="http://hu.farnell.com/vishay/si4174dy-t1-ge3/mosfet-n-ch-30v-17a-so8/dp/1840422"/>
+    <hyperlink ref="C28" r:id="rId22" tooltip="LD1117S33CTR" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
+    <hyperlink ref="C30" r:id="rId23" display="http://lomex.hu/hu/webshop/%23/search,40-01-35/stype,1"/>
+    <hyperlink ref="C31" r:id="rId24" display="http://lomex.hu/hu/webshop/%23/search,90-00-58/stype,1"/>
+    <hyperlink ref="C26" r:id="rId25" display="http://lomex.hu/hu/webshop/%23/search,42-02-61/stype,1"/>
+    <hyperlink ref="C33" r:id="rId26" tooltip="744772330" display="http://hu.farnell.com/wurth-elektronik/744772330/inductor-power-33uh-10-8-3x8-3mm/dp/2211704"/>
+    <hyperlink ref="B33" r:id="rId27" tooltip="2211704" display="http://hu.farnell.com/wurth-elektronik/744772330/inductor-power-33uh-10-8-3x8-3mm/dp/2211704"/>
+    <hyperlink ref="B34" r:id="rId28" tooltip="2610901" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
+    <hyperlink ref="C34" r:id="rId29" tooltip="MCVVT035M331GB3L" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
+    <hyperlink ref="B35" r:id="rId30" tooltip="2099237" display="http://hu.farnell.com/kingbright/kpt-2012seck/led-orange-0805-smd/dp/2099237"/>
+    <hyperlink ref="B36" r:id="rId31" tooltip="2326365" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
+    <hyperlink ref="C36" r:id="rId32" tooltip="EEVFK1C472M" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Alkatrészek.xlsx
+++ b/Alkatrészek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="146">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>EEVFK1C472M</t>
+  </si>
+  <si>
+    <t>47nH-Buck</t>
+  </si>
+  <si>
+    <t>MCFT000047</t>
+  </si>
+  <si>
+    <t>1711757RL</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1011,8 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,6 +1890,26 @@
       <c r="E36" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2080,8 +2109,10 @@
     <hyperlink ref="B35" r:id="rId30" tooltip="2099237" display="http://hu.farnell.com/kingbright/kpt-2012seck/led-orange-0805-smd/dp/2099237"/>
     <hyperlink ref="B36" r:id="rId31" tooltip="2326365" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
     <hyperlink ref="C36" r:id="rId32" tooltip="EEVFK1C472M" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
+    <hyperlink ref="C37" r:id="rId33" tooltip="MCFT000047" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
+    <hyperlink ref="B37" r:id="rId34" tooltip="1711757RL" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Alkatrészek.xlsx
+++ b/Alkatrészek.xlsx
@@ -1011,8 +1011,8 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Alkatrészek.xlsx
+++ b/Alkatrészek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -518,9 +518,6 @@
     <t>szűrő induktivitás</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Cboost</t>
   </si>
   <si>
@@ -546,13 +543,25 @@
   </si>
   <si>
     <t>1711757RL</t>
+  </si>
+  <si>
+    <t>55-01-80</t>
+  </si>
+  <si>
+    <t>100uHy 1A 0.28R 10% RAD RB0914101KLA (ABC) 8.7x12mm RM 5.0mm</t>
+  </si>
+  <si>
+    <t>22uF 100V RM27.5 10% FOL MKS4 MKS4D052206F00KYSD (WIM) 15x26x31.5mm</t>
+  </si>
+  <si>
+    <t>07-06-83</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +685,15 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -698,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -727,6 +745,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1011,8 +1030,8 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1250,7 @@
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="16" t="s">
         <v>84</v>
       </c>
       <c r="H12" s="3"/>
@@ -1811,44 +1830,45 @@
       <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="1">
-        <v>2211704</v>
-      </c>
-      <c r="C33" s="1">
-        <v>744772330</v>
+      <c r="B33" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1">
         <v>2610901</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1859,13 +1879,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="1">
         <v>2099237</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1876,13 +1896,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1">
         <v>2326365</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1893,13 +1913,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2102,15 +2122,15 @@
     <hyperlink ref="C30" r:id="rId23" display="http://lomex.hu/hu/webshop/%23/search,40-01-35/stype,1"/>
     <hyperlink ref="C31" r:id="rId24" display="http://lomex.hu/hu/webshop/%23/search,90-00-58/stype,1"/>
     <hyperlink ref="C26" r:id="rId25" display="http://lomex.hu/hu/webshop/%23/search,42-02-61/stype,1"/>
-    <hyperlink ref="C33" r:id="rId26" tooltip="744772330" display="http://hu.farnell.com/wurth-elektronik/744772330/inductor-power-33uh-10-8-3x8-3mm/dp/2211704"/>
-    <hyperlink ref="B33" r:id="rId27" tooltip="2211704" display="http://hu.farnell.com/wurth-elektronik/744772330/inductor-power-33uh-10-8-3x8-3mm/dp/2211704"/>
-    <hyperlink ref="B34" r:id="rId28" tooltip="2610901" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
-    <hyperlink ref="C34" r:id="rId29" tooltip="MCVVT035M331GB3L" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
-    <hyperlink ref="B35" r:id="rId30" tooltip="2099237" display="http://hu.farnell.com/kingbright/kpt-2012seck/led-orange-0805-smd/dp/2099237"/>
-    <hyperlink ref="B36" r:id="rId31" tooltip="2326365" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
-    <hyperlink ref="C36" r:id="rId32" tooltip="EEVFK1C472M" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
-    <hyperlink ref="C37" r:id="rId33" tooltip="MCFT000047" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
-    <hyperlink ref="B37" r:id="rId34" tooltip="1711757RL" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
+    <hyperlink ref="B34" r:id="rId26" tooltip="2610901" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
+    <hyperlink ref="C34" r:id="rId27" tooltip="MCVVT035M331GB3L" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
+    <hyperlink ref="B35" r:id="rId28" tooltip="2099237" display="http://hu.farnell.com/kingbright/kpt-2012seck/led-orange-0805-smd/dp/2099237"/>
+    <hyperlink ref="B36" r:id="rId29" tooltip="2326365" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
+    <hyperlink ref="C36" r:id="rId30" tooltip="EEVFK1C472M" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
+    <hyperlink ref="C37" r:id="rId31" tooltip="MCFT000047" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
+    <hyperlink ref="B37" r:id="rId32" tooltip="1711757RL" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
+    <hyperlink ref="C33" r:id="rId33" display="http://lomex.hu/hu/webshop/%23/search,55-01-80/stype,1"/>
+    <hyperlink ref="C32" r:id="rId34" display="http://lomex.hu/hu/webshop/%23/search,07-06-83/stype,1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>

--- a/Alkatrészek.xlsx
+++ b/Alkatrészek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>230VAC</t>
-  </si>
-  <si>
-    <t>STM32F030C8T6</t>
   </si>
   <si>
     <t>3 PWM, 6csatornás ADC</t>
@@ -556,12 +553,21 @@
   <si>
     <t>07-06-83</t>
   </si>
+  <si>
+    <t>ina213</t>
+  </si>
+  <si>
+    <t>INA213AIDCKT</t>
+  </si>
+  <si>
+    <t>STM32F303CBT7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +700,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -736,9 +750,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -746,6 +757,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1030,8 +1044,8 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,55 +1061,55 @@
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1147,11 +1161,11 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>1858083</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>36</v>
+      <c r="C10" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -1190,11 +1204,11 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>1840879</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>70</v>
+      <c r="C11" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
@@ -1204,10 +1218,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1232,14 +1246,14 @@
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>1840422</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>88</v>
+      <c r="C12" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -1250,8 +1264,8 @@
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>84</v>
+      <c r="G12" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1263,12 +1277,12 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1288,7 +1302,7 @@
         <v>1688795</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -1298,7 +1312,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1373,10 +1387,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -1388,8 +1402,8 @@
         <v>22</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="14" t="s">
-        <v>95</v>
+      <c r="H15" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1417,11 +1431,11 @@
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -1464,7 +1478,7 @@
         <v>2432504</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1473,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1521,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1554,7 +1568,7 @@
         <v>9479937</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -1566,7 +1580,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1595,11 +1609,11 @@
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="11">
-        <v>2393634</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
+      <c r="B20" s="12">
+        <v>2333361</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -1608,10 +1622,10 @@
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1638,13 +1652,13 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -1653,18 +1667,18 @@
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -1675,13 +1689,13 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
@@ -1692,13 +1706,13 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1709,13 +1723,13 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1">
         <v>1797011</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -1724,21 +1738,21 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1749,13 +1763,13 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -1763,13 +1777,13 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1">
         <v>1467779</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -1780,13 +1794,13 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1794,13 +1808,13 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1811,13 +1825,13 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1828,13 +1842,13 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1845,13 +1859,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1862,13 +1876,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1">
         <v>2610901</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1879,13 +1893,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="1">
         <v>2099237</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1896,13 +1910,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="1">
         <v>2326365</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1913,13 +1927,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1929,210 +1943,222 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+      <c r="A38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="12">
+        <v>1754261</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
         <v>107</v>
-      </c>
-      <c r="B44" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
         <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
         <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
         <v>63</v>
-      </c>
-      <c r="B50" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
         <v>111</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
         <v>114</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>115</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
         <v>117</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>118</v>
-      </c>
-      <c r="C53" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
         <v>120</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
         <v>130</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
         <v>124</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>125</v>
-      </c>
-      <c r="C56" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
         <v>127</v>
-      </c>
-      <c r="B57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" t="s">
         <v>52</v>
-      </c>
-      <c r="B60" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" display="http://lomex.hu/hu/webshop/%23/search,49-10-02/stype,1"/>
     <hyperlink ref="B18" r:id="rId2" tooltip="1273473" display="http://hu.farnell.com/linear-technology/lt1158csw-pbf/ic-mosfet-driver-half-bridge-wsoic/dp/1273473"/>
-    <hyperlink ref="B20" r:id="rId3" tooltip="2393634" display="http://hu.farnell.com/stmicroelectronics/stm32f030c8t6/mcu-32bit-cortex-m0-48mhz-lqfp/dp/2393634"/>
-    <hyperlink ref="C20" r:id="rId4" tooltip="STM32F030C8T6" display="http://hu.farnell.com/stmicroelectronics/stm32f030c8t6/mcu-32bit-cortex-m0-48mhz-lqfp/dp/2393634"/>
-    <hyperlink ref="C21" r:id="rId5" display="http://lomex.hu/hu/webshop/%23/search,80-11-23/stype,1"/>
-    <hyperlink ref="C22" r:id="rId6" display="http://lomex.hu/hu/webshop/%23/search,80-11-47/stype,1"/>
-    <hyperlink ref="C23" r:id="rId7" display="http://lomex.hu/hu/webshop/%23/search,43-07-92/stype,1"/>
-    <hyperlink ref="C24" r:id="rId8" display="http://lomex.hu/hu/webshop/%23/search,45-08-76/stype,1"/>
-    <hyperlink ref="B13" r:id="rId9" tooltip="1688795" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
-    <hyperlink ref="C13" r:id="rId10" tooltip="B57153S0100M000" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
-    <hyperlink ref="B28" r:id="rId11" tooltip="1467779" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
-    <hyperlink ref="B25" r:id="rId12" tooltip="1797011" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
-    <hyperlink ref="C25" r:id="rId13" tooltip="GRM31CR6YA106KA12L" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
-    <hyperlink ref="B19" r:id="rId14" tooltip="9479937" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
-    <hyperlink ref="C19" r:id="rId15" tooltip="HRM1-S DC5V" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
-    <hyperlink ref="C27" r:id="rId16" display="http://lomex.hu/hu/webshop/%23/search,83-02-64/stype,1"/>
-    <hyperlink ref="C29" r:id="rId17" display="http://lomex.hu/hu/webshop/%23/search,86-00-97/stype,1"/>
-    <hyperlink ref="C16" r:id="rId18" display="http://lomex.hu/hu/webshop/%23/search,37-00-71/stype,1"/>
-    <hyperlink ref="B17" r:id="rId19" tooltip="2432504" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
-    <hyperlink ref="C17" r:id="rId20" tooltip="IFX91041EJV50XUMA1" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
-    <hyperlink ref="B12" r:id="rId21" tooltip="1840422" display="http://hu.farnell.com/vishay/si4174dy-t1-ge3/mosfet-n-ch-30v-17a-so8/dp/1840422"/>
-    <hyperlink ref="C28" r:id="rId22" tooltip="LD1117S33CTR" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
-    <hyperlink ref="C30" r:id="rId23" display="http://lomex.hu/hu/webshop/%23/search,40-01-35/stype,1"/>
-    <hyperlink ref="C31" r:id="rId24" display="http://lomex.hu/hu/webshop/%23/search,90-00-58/stype,1"/>
-    <hyperlink ref="C26" r:id="rId25" display="http://lomex.hu/hu/webshop/%23/search,42-02-61/stype,1"/>
-    <hyperlink ref="B34" r:id="rId26" tooltip="2610901" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
-    <hyperlink ref="C34" r:id="rId27" tooltip="MCVVT035M331GB3L" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
-    <hyperlink ref="B35" r:id="rId28" tooltip="2099237" display="http://hu.farnell.com/kingbright/kpt-2012seck/led-orange-0805-smd/dp/2099237"/>
-    <hyperlink ref="B36" r:id="rId29" tooltip="2326365" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
-    <hyperlink ref="C36" r:id="rId30" tooltip="EEVFK1C472M" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
-    <hyperlink ref="C37" r:id="rId31" tooltip="MCFT000047" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
-    <hyperlink ref="B37" r:id="rId32" tooltip="1711757RL" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
-    <hyperlink ref="C33" r:id="rId33" display="http://lomex.hu/hu/webshop/%23/search,55-01-80/stype,1"/>
-    <hyperlink ref="C32" r:id="rId34" display="http://lomex.hu/hu/webshop/%23/search,07-06-83/stype,1"/>
+    <hyperlink ref="C21" r:id="rId3" display="http://lomex.hu/hu/webshop/%23/search,80-11-23/stype,1"/>
+    <hyperlink ref="C22" r:id="rId4" display="http://lomex.hu/hu/webshop/%23/search,80-11-47/stype,1"/>
+    <hyperlink ref="C23" r:id="rId5" display="http://lomex.hu/hu/webshop/%23/search,43-07-92/stype,1"/>
+    <hyperlink ref="C24" r:id="rId6" display="http://lomex.hu/hu/webshop/%23/search,45-08-76/stype,1"/>
+    <hyperlink ref="B13" r:id="rId7" tooltip="1688795" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
+    <hyperlink ref="C13" r:id="rId8" tooltip="B57153S0100M000" display="http://hu.farnell.com/epcos/b57153s0100m000/thermistor-ntc-10r-2a/dp/1688795"/>
+    <hyperlink ref="B28" r:id="rId9" tooltip="1467779" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
+    <hyperlink ref="B25" r:id="rId10" tooltip="1797011" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
+    <hyperlink ref="C25" r:id="rId11" tooltip="GRM31CR6YA106KA12L" display="http://hu.farnell.com/murata/grm31cr6ya106ka12l/cap-mlcc-x5r-10uf-35v-1206/dp/1797011"/>
+    <hyperlink ref="B19" r:id="rId12" tooltip="9479937" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
+    <hyperlink ref="C19" r:id="rId13" tooltip="HRM1-S DC5V" display="http://hu.farnell.com/multicomp/hrm1-s-dc5v/relay-dpdt-250vac-24vdc-5a/dp/9479937"/>
+    <hyperlink ref="C27" r:id="rId14" display="http://lomex.hu/hu/webshop/%23/search,83-02-64/stype,1"/>
+    <hyperlink ref="C29" r:id="rId15" display="http://lomex.hu/hu/webshop/%23/search,86-00-97/stype,1"/>
+    <hyperlink ref="C16" r:id="rId16" display="http://lomex.hu/hu/webshop/%23/search,37-00-71/stype,1"/>
+    <hyperlink ref="B17" r:id="rId17" tooltip="2432504" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
+    <hyperlink ref="C17" r:id="rId18" tooltip="IFX91041EJV50XUMA1" display="http://hu.farnell.com/infineon/ifx91041ejv50xuma1/dc-dc-conv-buck-370khz-soic-8/dp/2432504"/>
+    <hyperlink ref="B12" r:id="rId19" tooltip="1840422" display="http://hu.farnell.com/vishay/si4174dy-t1-ge3/mosfet-n-ch-30v-17a-so8/dp/1840422"/>
+    <hyperlink ref="C28" r:id="rId20" tooltip="LD1117S33CTR" display="http://hu.farnell.com/stmicroelectronics/ld1117s33ctr/ic-v-reg-ldo-3-3v-smd/dp/1467779"/>
+    <hyperlink ref="C30" r:id="rId21" display="http://lomex.hu/hu/webshop/%23/search,40-01-35/stype,1"/>
+    <hyperlink ref="C31" r:id="rId22" display="http://lomex.hu/hu/webshop/%23/search,90-00-58/stype,1"/>
+    <hyperlink ref="C26" r:id="rId23" display="http://lomex.hu/hu/webshop/%23/search,42-02-61/stype,1"/>
+    <hyperlink ref="B34" r:id="rId24" tooltip="2610901" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
+    <hyperlink ref="C34" r:id="rId25" tooltip="MCVVT035M331GB3L" display="http://hu.farnell.com/multicomp/mcvvt035m331gb3l/cap-alu-elec-330uf-35v-rad-can/dp/2610901"/>
+    <hyperlink ref="B35" r:id="rId26" tooltip="2099237" display="http://hu.farnell.com/kingbright/kpt-2012seck/led-orange-0805-smd/dp/2099237"/>
+    <hyperlink ref="B36" r:id="rId27" tooltip="2326365" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
+    <hyperlink ref="C36" r:id="rId28" tooltip="EEVFK1C472M" display="http://hu.farnell.com/panasonic-electronic-components/eevfk1c472m/cap-alu-elec-4700uf-16v-smd/dp/2326365"/>
+    <hyperlink ref="C37" r:id="rId29" tooltip="MCFT000047" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
+    <hyperlink ref="B37" r:id="rId30" tooltip="1711757RL" display="http://hu.farnell.com/multicomp/mcft000047/inductor-0603-47nh/dp/1711757RL"/>
+    <hyperlink ref="C33" r:id="rId31" display="http://lomex.hu/hu/webshop/%23/search,55-01-80/stype,1"/>
+    <hyperlink ref="C32" r:id="rId32" display="http://lomex.hu/hu/webshop/%23/search,07-06-83/stype,1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>